--- a/Code/Results/Cases/Case_5_163/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_163/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.28455422491381</v>
+        <v>17.39238349376427</v>
       </c>
       <c r="C2">
-        <v>5.869051868193083</v>
+        <v>5.265214403894899</v>
       </c>
       <c r="D2">
-        <v>11.48561905709976</v>
+        <v>11.08490074222824</v>
       </c>
       <c r="E2">
-        <v>8.01638680527194</v>
+        <v>11.15595206546573</v>
       </c>
       <c r="F2">
-        <v>65.63036936965766</v>
+        <v>55.97864597782567</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.52906244310645</v>
+        <v>13.68452227586695</v>
       </c>
       <c r="L2">
-        <v>6.846334555082005</v>
+        <v>10.21633361865065</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.52878923807613</v>
+        <v>17.3439019773052</v>
       </c>
       <c r="C3">
-        <v>5.640440950705667</v>
+        <v>5.180421910722464</v>
       </c>
       <c r="D3">
-        <v>11.08077080519745</v>
+        <v>10.94327030893495</v>
       </c>
       <c r="E3">
-        <v>7.828640021151409</v>
+        <v>11.13865921087207</v>
       </c>
       <c r="F3">
-        <v>62.28498221936576</v>
+        <v>54.83860886638132</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.74485286389549</v>
+        <v>13.68601242488031</v>
       </c>
       <c r="L3">
-        <v>6.678684440245827</v>
+        <v>10.21941548474424</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.06207091778716</v>
+        <v>17.32078501600712</v>
       </c>
       <c r="C4">
-        <v>5.497328661697325</v>
+        <v>5.12605006425392</v>
       </c>
       <c r="D4">
-        <v>10.82762791539643</v>
+        <v>10.8543188840361</v>
       </c>
       <c r="E4">
-        <v>7.715394518028733</v>
+        <v>11.12945863325318</v>
       </c>
       <c r="F4">
-        <v>60.17438710621542</v>
+        <v>54.12850773851184</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.370638382913409</v>
+        <v>13.69238407058912</v>
       </c>
       <c r="L4">
-        <v>6.579256756880664</v>
+        <v>10.22337281166599</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.8714279735817</v>
+        <v>17.31304411219287</v>
       </c>
       <c r="C5">
-        <v>5.43826625350252</v>
+        <v>5.103313453015889</v>
       </c>
       <c r="D5">
-        <v>10.72333863655601</v>
+        <v>10.81758476478702</v>
       </c>
       <c r="E5">
-        <v>7.669772276864941</v>
+        <v>11.12606712026641</v>
       </c>
       <c r="F5">
-        <v>59.30053550669635</v>
+        <v>53.83687583918211</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.246538334931204</v>
+        <v>13.69635027585512</v>
       </c>
       <c r="L5">
-        <v>6.539633113795825</v>
+        <v>10.22550463785333</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.83975206481771</v>
+        <v>17.31186033411972</v>
       </c>
       <c r="C6">
-        <v>5.428412695649191</v>
+        <v>5.099503077952702</v>
       </c>
       <c r="D6">
-        <v>10.70595383448405</v>
+        <v>10.81145619092493</v>
       </c>
       <c r="E6">
-        <v>7.662229009084756</v>
+        <v>11.12552560927621</v>
       </c>
       <c r="F6">
-        <v>59.15461773953833</v>
+        <v>53.78832255196443</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.225980689499057</v>
+        <v>13.69709149257985</v>
       </c>
       <c r="L6">
-        <v>6.533107978989785</v>
+        <v>10.22588997657652</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.05950133776293</v>
+        <v>17.32067381202976</v>
       </c>
       <c r="C7">
-        <v>5.496535198670954</v>
+        <v>5.125745775879441</v>
       </c>
       <c r="D7">
-        <v>10.82622598538222</v>
+        <v>10.85382542177832</v>
       </c>
       <c r="E7">
-        <v>7.714777088043213</v>
+        <v>11.12941144369368</v>
       </c>
       <c r="F7">
-        <v>60.16265707549556</v>
+        <v>54.12458345809917</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.368961550417714</v>
+        <v>13.69243201855081</v>
       </c>
       <c r="L7">
-        <v>6.578718743291661</v>
+        <v>10.22339946035148</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.02463817377314</v>
+        <v>17.37429161009148</v>
       </c>
       <c r="C8">
-        <v>5.790762257274428</v>
+        <v>5.236457678353255</v>
       </c>
       <c r="D8">
-        <v>11.34698075807839</v>
+        <v>11.03648823692757</v>
       </c>
       <c r="E8">
-        <v>7.95123835800242</v>
+        <v>11.14969622488087</v>
       </c>
       <c r="F8">
-        <v>64.48882541819393</v>
+        <v>55.58782715190917</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.26316672868661</v>
+        <v>13.68390247110799</v>
       </c>
       <c r="L8">
-        <v>6.787806485190476</v>
+        <v>10.21696765057425</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.88915908371641</v>
+        <v>17.53178714232591</v>
       </c>
       <c r="C9">
-        <v>6.348773383779606</v>
+        <v>5.435214008443506</v>
       </c>
       <c r="D9">
-        <v>12.33194328573035</v>
+        <v>11.37827846676515</v>
       </c>
       <c r="E9">
-        <v>8.430581113315592</v>
+        <v>11.20065213200512</v>
       </c>
       <c r="F9">
-        <v>72.51306849215364</v>
+        <v>58.36509350137226</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.10386098460993</v>
+        <v>13.71052145337272</v>
       </c>
       <c r="L9">
-        <v>7.225338520406728</v>
+        <v>10.22073673742923</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.43302399144041</v>
+        <v>17.67869170758843</v>
       </c>
       <c r="C10">
-        <v>6.751813287979782</v>
+        <v>5.570033350691983</v>
       </c>
       <c r="D10">
-        <v>13.03462303727282</v>
+        <v>11.61858511635895</v>
       </c>
       <c r="E10">
-        <v>8.792064033330616</v>
+        <v>11.24480284124079</v>
       </c>
       <c r="F10">
-        <v>78.12591278800079</v>
+        <v>60.33429461897334</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.3631591344946</v>
+        <v>13.75648344542707</v>
       </c>
       <c r="L10">
-        <v>7.563509258193424</v>
+        <v>10.23347723032598</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.1445695843065</v>
+        <v>17.7520943727763</v>
       </c>
       <c r="C11">
-        <v>6.934926914852094</v>
+        <v>5.628931918819961</v>
       </c>
       <c r="D11">
-        <v>13.3503260529424</v>
+        <v>11.7253984810512</v>
       </c>
       <c r="E11">
-        <v>8.958633397422657</v>
+        <v>11.26632042125931</v>
       </c>
       <c r="F11">
-        <v>80.62084202777207</v>
+        <v>61.21173445020478</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.91835302627113</v>
+        <v>13.78309369605083</v>
       </c>
       <c r="L11">
-        <v>7.721124367272139</v>
+        <v>10.24143052699367</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.41142401572551</v>
+        <v>17.78081536612216</v>
       </c>
       <c r="C12">
-        <v>7.004360730157397</v>
+        <v>5.650885577633562</v>
       </c>
       <c r="D12">
-        <v>13.46938056536425</v>
+        <v>11.76547277334707</v>
       </c>
       <c r="E12">
-        <v>9.022035223770541</v>
+        <v>11.2746721117265</v>
       </c>
       <c r="F12">
-        <v>81.55766565941182</v>
+        <v>61.54113215065974</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.12629090693081</v>
+        <v>13.79398526552781</v>
       </c>
       <c r="L12">
-        <v>7.78137772711361</v>
+        <v>10.2447513893284</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.3540632600631</v>
+        <v>17.77458899381421</v>
       </c>
       <c r="C13">
-        <v>6.989400566229924</v>
+        <v>5.646173031961111</v>
       </c>
       <c r="D13">
-        <v>13.44376068056341</v>
+        <v>11.75685888559399</v>
       </c>
       <c r="E13">
-        <v>9.008365588832621</v>
+        <v>11.27286442143383</v>
       </c>
       <c r="F13">
-        <v>81.35624861642103</v>
+        <v>61.47032159145448</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.08160600130156</v>
+        <v>13.79160342619206</v>
       </c>
       <c r="L13">
-        <v>7.768375297167291</v>
+        <v>10.24402245456669</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.16657432733496</v>
+        <v>17.75443885218401</v>
       </c>
       <c r="C14">
-        <v>6.940636624397422</v>
+        <v>5.630745074331934</v>
       </c>
       <c r="D14">
-        <v>13.36013017144001</v>
+        <v>11.72870298118655</v>
       </c>
       <c r="E14">
-        <v>8.963842824918274</v>
+        <v>11.2670034582536</v>
       </c>
       <c r="F14">
-        <v>80.69807126322928</v>
+        <v>61.238892973049</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.93550485545918</v>
+        <v>13.78397345530562</v>
       </c>
       <c r="L14">
-        <v>7.726069877967896</v>
+        <v>10.24169754843497</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.0514019658728</v>
+        <v>17.74221612893112</v>
       </c>
       <c r="C15">
-        <v>6.910783457831079</v>
+        <v>5.621249424181437</v>
       </c>
       <c r="D15">
-        <v>13.30884209424509</v>
+        <v>11.7114076256695</v>
       </c>
       <c r="E15">
-        <v>8.936614527222428</v>
+        <v>11.2634398624792</v>
       </c>
       <c r="F15">
-        <v>80.29389926067354</v>
+        <v>61.09675597878292</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.84572152117762</v>
+        <v>13.7794058204418</v>
       </c>
       <c r="L15">
-        <v>7.700231499163142</v>
+        <v>10.24031369526088</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.38614648119274</v>
+        <v>17.67402527167919</v>
       </c>
       <c r="C16">
-        <v>6.739852033756671</v>
+        <v>5.566135233863962</v>
       </c>
       <c r="D16">
-        <v>13.01391733030188</v>
+        <v>11.61155306125455</v>
       </c>
       <c r="E16">
-        <v>8.781222582655019</v>
+        <v>11.24342523505691</v>
       </c>
       <c r="F16">
-        <v>77.96172236819707</v>
+        <v>60.27656245110112</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.32654008023463</v>
+        <v>13.75485873689937</v>
       </c>
       <c r="L16">
-        <v>7.553286592646108</v>
+        <v>10.23300078806665</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.97315681482796</v>
+        <v>17.63386247659766</v>
       </c>
       <c r="C17">
-        <v>6.635015279431593</v>
+        <v>5.531701444363895</v>
       </c>
       <c r="D17">
-        <v>12.83202375112792</v>
+        <v>11.54964449624119</v>
       </c>
       <c r="E17">
-        <v>8.6864503114921</v>
+        <v>11.2315121691926</v>
       </c>
       <c r="F17">
-        <v>76.51631433102165</v>
+        <v>59.76852985596709</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.00367419428946</v>
+        <v>13.74125711328747</v>
       </c>
       <c r="L17">
-        <v>7.464122128231676</v>
+        <v>10.22906643214131</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.73375342140848</v>
+        <v>17.61138213081525</v>
       </c>
       <c r="C18">
-        <v>6.574685536160349</v>
+        <v>5.511667190922333</v>
       </c>
       <c r="D18">
-        <v>12.72702601318005</v>
+        <v>11.51380148566128</v>
       </c>
       <c r="E18">
-        <v>8.632138402282242</v>
+        <v>11.2247951593154</v>
       </c>
       <c r="F18">
-        <v>75.67942151402097</v>
+        <v>59.47460764524109</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.81629137567728</v>
+        <v>13.73397090240668</v>
       </c>
       <c r="L18">
-        <v>7.41319066954729</v>
+        <v>10.2270066597308</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.65236950802578</v>
+        <v>17.60387778875306</v>
       </c>
       <c r="C19">
-        <v>6.554250184755538</v>
+        <v>5.504844644128221</v>
       </c>
       <c r="D19">
-        <v>12.69140891516336</v>
+        <v>11.50162574763246</v>
       </c>
       <c r="E19">
-        <v>8.613783019595003</v>
+        <v>11.22254417095536</v>
       </c>
       <c r="F19">
-        <v>75.39510316274256</v>
+        <v>59.3748032707559</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.75255165263646</v>
+        <v>13.73159629339996</v>
       </c>
       <c r="L19">
-        <v>7.396006341697259</v>
+        <v>10.22634418068126</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.01731155813729</v>
+        <v>17.63807382518238</v>
       </c>
       <c r="C20">
-        <v>6.646177630758124</v>
+        <v>5.535390667737983</v>
       </c>
       <c r="D20">
-        <v>12.85142523302328</v>
+        <v>11.55625917422693</v>
       </c>
       <c r="E20">
-        <v>8.696518322581385</v>
+        <v>11.23276637462379</v>
       </c>
       <c r="F20">
-        <v>76.67075041071388</v>
+        <v>59.82279003051616</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.03821595022252</v>
+        <v>13.7426494757273</v>
       </c>
       <c r="L20">
-        <v>7.473577106938574</v>
+        <v>10.22946423171401</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.22171265879896</v>
+        <v>17.76033250605807</v>
       </c>
       <c r="C21">
-        <v>6.954956154787043</v>
+        <v>5.635286138781964</v>
       </c>
       <c r="D21">
-        <v>13.38470723325371</v>
+        <v>11.73698329863985</v>
       </c>
       <c r="E21">
-        <v>8.976911189683202</v>
+        <v>11.26871946567366</v>
       </c>
       <c r="F21">
-        <v>80.89160529688382</v>
+        <v>61.30694880769529</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.97847871830589</v>
+        <v>13.78619249534285</v>
       </c>
       <c r="L21">
-        <v>7.738480330862781</v>
+        <v>10.2423720504878</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.99389118732604</v>
+        <v>17.84561635706555</v>
       </c>
       <c r="C22">
-        <v>7.157374965494154</v>
+        <v>5.698533784816758</v>
       </c>
       <c r="D22">
-        <v>13.73040082884593</v>
+        <v>11.85291331348885</v>
       </c>
       <c r="E22">
-        <v>9.162079891550631</v>
+        <v>11.29340138786537</v>
       </c>
       <c r="F22">
-        <v>83.60416436928195</v>
+        <v>62.26010946330663</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.57971202982898</v>
+        <v>13.81939659740351</v>
       </c>
       <c r="L22">
-        <v>7.914941633773891</v>
+        <v>10.25260915819504</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.58304555409141</v>
+        <v>17.79961369054629</v>
       </c>
       <c r="C23">
-        <v>7.049236831933136</v>
+        <v>5.664964034080035</v>
       </c>
       <c r="D23">
-        <v>13.54612725856568</v>
+        <v>11.79124345780938</v>
       </c>
       <c r="E23">
-        <v>9.063067018157431</v>
+        <v>11.28012072316019</v>
       </c>
       <c r="F23">
-        <v>82.1604370357646</v>
+        <v>61.75300098460262</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.25995036639574</v>
+        <v>13.80124269540066</v>
       </c>
       <c r="L23">
-        <v>7.820444412564563</v>
+        <v>10.2469810569254</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.99735535176157</v>
+        <v>17.63616797362855</v>
       </c>
       <c r="C24">
-        <v>6.641131320657558</v>
+        <v>5.533723510546992</v>
       </c>
       <c r="D24">
-        <v>12.84265515106146</v>
+        <v>11.55326945892895</v>
       </c>
       <c r="E24">
-        <v>8.691966034309594</v>
+        <v>11.23219893709216</v>
       </c>
       <c r="F24">
-        <v>76.60094829389095</v>
+        <v>59.79826474258434</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.02260513105101</v>
+        <v>13.74201832642981</v>
       </c>
       <c r="L24">
-        <v>7.469301483663743</v>
+        <v>10.22928375681919</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.38849835162845</v>
+        <v>17.4836413287914</v>
       </c>
       <c r="C25">
-        <v>6.199412102150776</v>
+        <v>5.383412313841912</v>
       </c>
       <c r="D25">
-        <v>12.06930665159583</v>
+        <v>11.28765633938753</v>
       </c>
       <c r="E25">
-        <v>8.299277160913286</v>
+        <v>11.18568015730479</v>
       </c>
       <c r="F25">
-        <v>70.39233927019767</v>
+        <v>57.62524153061027</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.62302146668923</v>
+        <v>13.6986765167932</v>
       </c>
       <c r="L25">
-        <v>7.104057150960161</v>
+        <v>10.21796399885281</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_163/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_163/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.39238349376427</v>
+        <v>14.28455422491377</v>
       </c>
       <c r="C2">
-        <v>5.265214403894899</v>
+        <v>5.86905186819294</v>
       </c>
       <c r="D2">
-        <v>11.08490074222824</v>
+        <v>11.48561905709988</v>
       </c>
       <c r="E2">
-        <v>11.15595206546573</v>
+        <v>8.016386805272088</v>
       </c>
       <c r="F2">
-        <v>55.97864597782567</v>
+        <v>65.63036936965791</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.68452227586695</v>
+        <v>10.52906244310652</v>
       </c>
       <c r="L2">
-        <v>10.21633361865065</v>
+        <v>6.846334555082066</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.3439019773052</v>
+        <v>13.52878923807613</v>
       </c>
       <c r="C3">
-        <v>5.180421910722464</v>
+        <v>5.640440950705939</v>
       </c>
       <c r="D3">
-        <v>10.94327030893495</v>
+        <v>11.08077080519731</v>
       </c>
       <c r="E3">
-        <v>11.13865921087207</v>
+        <v>7.828640021151388</v>
       </c>
       <c r="F3">
-        <v>54.83860886638132</v>
+        <v>62.2849822193658</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.68601242488031</v>
+        <v>9.744852863895494</v>
       </c>
       <c r="L3">
-        <v>10.21941548474424</v>
+        <v>6.678684440245812</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.32078501600712</v>
+        <v>13.06207091778716</v>
       </c>
       <c r="C4">
-        <v>5.12605006425392</v>
+        <v>5.497328661697201</v>
       </c>
       <c r="D4">
-        <v>10.8543188840361</v>
+        <v>10.8276279153964</v>
       </c>
       <c r="E4">
-        <v>11.12945863325318</v>
+        <v>7.71539451802875</v>
       </c>
       <c r="F4">
-        <v>54.12850773851184</v>
+        <v>60.17438710621485</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.69238407058912</v>
+        <v>9.370638382913441</v>
       </c>
       <c r="L4">
-        <v>10.22337281166599</v>
+        <v>6.579256756880682</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.31304411219287</v>
+        <v>12.87142797358165</v>
       </c>
       <c r="C5">
-        <v>5.103313453015889</v>
+        <v>5.438266253502522</v>
       </c>
       <c r="D5">
-        <v>10.81758476478702</v>
+        <v>10.72333863655595</v>
       </c>
       <c r="E5">
-        <v>11.12606712026641</v>
+        <v>7.66977227686489</v>
       </c>
       <c r="F5">
-        <v>53.83687583918211</v>
+        <v>59.30053550669617</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.69635027585512</v>
+        <v>9.246538334931177</v>
       </c>
       <c r="L5">
-        <v>10.22550463785333</v>
+        <v>6.539633113795801</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.31186033411972</v>
+        <v>12.83975206481771</v>
       </c>
       <c r="C6">
-        <v>5.099503077952702</v>
+        <v>5.428412695649593</v>
       </c>
       <c r="D6">
-        <v>10.81145619092493</v>
+        <v>10.70595383448405</v>
       </c>
       <c r="E6">
-        <v>11.12552560927621</v>
+        <v>7.662229009084924</v>
       </c>
       <c r="F6">
-        <v>53.78832255196443</v>
+        <v>59.15461773953815</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.69709149257985</v>
+        <v>9.225980689499016</v>
       </c>
       <c r="L6">
-        <v>10.22588997657652</v>
+        <v>6.533107978989817</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.32067381202976</v>
+        <v>13.05950133776297</v>
       </c>
       <c r="C7">
-        <v>5.125745775879441</v>
+        <v>5.49653519867069</v>
       </c>
       <c r="D7">
-        <v>10.85382542177832</v>
+        <v>10.82622598538241</v>
       </c>
       <c r="E7">
-        <v>11.12941144369368</v>
+        <v>7.714777088043212</v>
       </c>
       <c r="F7">
-        <v>54.12458345809917</v>
+        <v>60.16265707549559</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.69243201855081</v>
+        <v>9.368961550417751</v>
       </c>
       <c r="L7">
-        <v>10.22339946035148</v>
+        <v>6.578718743291717</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.37429161009148</v>
+        <v>14.02463817377312</v>
       </c>
       <c r="C8">
-        <v>5.236457678353255</v>
+        <v>5.790762257274552</v>
       </c>
       <c r="D8">
-        <v>11.03648823692757</v>
+        <v>11.34698075807844</v>
       </c>
       <c r="E8">
-        <v>11.14969622488087</v>
+        <v>7.951238358002485</v>
       </c>
       <c r="F8">
-        <v>55.58782715190917</v>
+        <v>64.48882541819412</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.68390247110799</v>
+        <v>10.26316672868669</v>
       </c>
       <c r="L8">
-        <v>10.21696765057425</v>
+        <v>6.78780648519046</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.53178714232591</v>
+        <v>15.88915908371644</v>
       </c>
       <c r="C9">
-        <v>5.435214008443506</v>
+        <v>6.348773383779732</v>
       </c>
       <c r="D9">
-        <v>11.37827846676515</v>
+        <v>12.33194328573024</v>
       </c>
       <c r="E9">
-        <v>11.20065213200512</v>
+        <v>8.43058111331568</v>
       </c>
       <c r="F9">
-        <v>58.36509350137226</v>
+        <v>72.51306849215359</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.71052145337272</v>
+        <v>12.10386098460999</v>
       </c>
       <c r="L9">
-        <v>10.22073673742923</v>
+        <v>7.225338520406764</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.67869170758843</v>
+        <v>17.43302399144043</v>
       </c>
       <c r="C10">
-        <v>5.570033350691983</v>
+        <v>6.751813287979915</v>
       </c>
       <c r="D10">
-        <v>11.61858511635895</v>
+        <v>13.03462303727288</v>
       </c>
       <c r="E10">
-        <v>11.24480284124079</v>
+        <v>8.792064033330631</v>
       </c>
       <c r="F10">
-        <v>60.33429461897334</v>
+        <v>78.12591278800117</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.75648344542707</v>
+        <v>13.36315913449463</v>
       </c>
       <c r="L10">
-        <v>10.23347723032598</v>
+        <v>7.563509258193424</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.7520943727763</v>
+        <v>18.14456958430663</v>
       </c>
       <c r="C11">
-        <v>5.628931918819961</v>
+        <v>6.934926914852338</v>
       </c>
       <c r="D11">
-        <v>11.7253984810512</v>
+        <v>13.35032605294241</v>
       </c>
       <c r="E11">
-        <v>11.26632042125931</v>
+        <v>8.95863339742278</v>
       </c>
       <c r="F11">
-        <v>61.21173445020478</v>
+        <v>80.62084202777278</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.78309369605083</v>
+        <v>13.91835302627126</v>
       </c>
       <c r="L11">
-        <v>10.24143052699367</v>
+        <v>7.721124367272133</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.78081536612216</v>
+        <v>18.4114240157256</v>
       </c>
       <c r="C12">
-        <v>5.650885577633562</v>
+        <v>7.004360730157259</v>
       </c>
       <c r="D12">
-        <v>11.76547277334707</v>
+        <v>13.46938056536419</v>
       </c>
       <c r="E12">
-        <v>11.2746721117265</v>
+        <v>9.022035223770523</v>
       </c>
       <c r="F12">
-        <v>61.54113215065974</v>
+        <v>81.55766565941205</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.79398526552781</v>
+        <v>14.12629090693084</v>
       </c>
       <c r="L12">
-        <v>10.2447513893284</v>
+        <v>7.78137772711361</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.77458899381421</v>
+        <v>18.35406326006311</v>
       </c>
       <c r="C13">
-        <v>5.646173031961111</v>
+        <v>6.989400566230325</v>
       </c>
       <c r="D13">
-        <v>11.75685888559399</v>
+        <v>13.44376068056343</v>
       </c>
       <c r="E13">
-        <v>11.27286442143383</v>
+        <v>9.0083655888326</v>
       </c>
       <c r="F13">
-        <v>61.47032159145448</v>
+        <v>81.3562486164211</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.79160342619206</v>
+        <v>14.08160600130158</v>
       </c>
       <c r="L13">
-        <v>10.24402245456669</v>
+        <v>7.768375297167269</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.75443885218401</v>
+        <v>18.16657432733496</v>
       </c>
       <c r="C14">
-        <v>5.630745074331934</v>
+        <v>6.940636624397549</v>
       </c>
       <c r="D14">
-        <v>11.72870298118655</v>
+        <v>13.36013017144018</v>
       </c>
       <c r="E14">
-        <v>11.2670034582536</v>
+        <v>8.963842824918251</v>
       </c>
       <c r="F14">
-        <v>61.238892973049</v>
+        <v>80.69807126322966</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.78397345530562</v>
+        <v>13.93550485545917</v>
       </c>
       <c r="L14">
-        <v>10.24169754843497</v>
+        <v>7.726069877967855</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.74221612893112</v>
+        <v>18.05140196587288</v>
       </c>
       <c r="C15">
-        <v>5.621249424181437</v>
+        <v>6.910783457831217</v>
       </c>
       <c r="D15">
-        <v>11.7114076256695</v>
+        <v>13.30884209424526</v>
       </c>
       <c r="E15">
-        <v>11.2634398624792</v>
+        <v>8.936614527222405</v>
       </c>
       <c r="F15">
-        <v>61.09675597878292</v>
+        <v>80.29389926067407</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.7794058204418</v>
+        <v>13.8457215211777</v>
       </c>
       <c r="L15">
-        <v>10.24031369526088</v>
+        <v>7.700231499163134</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.67402527167919</v>
+        <v>17.38614648119283</v>
       </c>
       <c r="C16">
-        <v>5.566135233863962</v>
+        <v>6.739852033756661</v>
       </c>
       <c r="D16">
-        <v>11.61155306125455</v>
+        <v>13.01391733030185</v>
       </c>
       <c r="E16">
-        <v>11.24342523505691</v>
+        <v>8.781222582655056</v>
       </c>
       <c r="F16">
-        <v>60.27656245110112</v>
+        <v>77.96172236819726</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.75485873689937</v>
+        <v>13.32654008023469</v>
       </c>
       <c r="L16">
-        <v>10.23300078806665</v>
+        <v>7.553286592646083</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.63386247659766</v>
+        <v>16.97315681482801</v>
       </c>
       <c r="C17">
-        <v>5.531701444363895</v>
+        <v>6.635015279431719</v>
       </c>
       <c r="D17">
-        <v>11.54964449624119</v>
+        <v>12.832023751128</v>
       </c>
       <c r="E17">
-        <v>11.2315121691926</v>
+        <v>8.68645031149212</v>
       </c>
       <c r="F17">
-        <v>59.76852985596709</v>
+        <v>76.5163143310221</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.74125711328747</v>
+        <v>13.00367419428955</v>
       </c>
       <c r="L17">
-        <v>10.22906643214131</v>
+        <v>7.46412212823167</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.61138213081525</v>
+        <v>16.7337534214085</v>
       </c>
       <c r="C18">
-        <v>5.511667190922333</v>
+        <v>6.574685536160345</v>
       </c>
       <c r="D18">
-        <v>11.51380148566128</v>
+        <v>12.72702601318006</v>
       </c>
       <c r="E18">
-        <v>11.2247951593154</v>
+        <v>8.632138402282175</v>
       </c>
       <c r="F18">
-        <v>59.47460764524109</v>
+        <v>75.67942151402136</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.73397090240668</v>
+        <v>12.81629137567732</v>
       </c>
       <c r="L18">
-        <v>10.2270066597308</v>
+        <v>7.413190669547267</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.60387778875306</v>
+        <v>16.65236950802576</v>
       </c>
       <c r="C19">
-        <v>5.504844644128221</v>
+        <v>6.554250184755269</v>
       </c>
       <c r="D19">
-        <v>11.50162574763246</v>
+        <v>12.69140891516332</v>
       </c>
       <c r="E19">
-        <v>11.22254417095536</v>
+        <v>8.61378301959496</v>
       </c>
       <c r="F19">
-        <v>59.3748032707559</v>
+        <v>75.39510316274219</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.73159629339996</v>
+        <v>12.75255165263639</v>
       </c>
       <c r="L19">
-        <v>10.22634418068126</v>
+        <v>7.396006341697263</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.63807382518238</v>
+        <v>17.01731155813728</v>
       </c>
       <c r="C20">
-        <v>5.535390667737983</v>
+        <v>6.646177630758132</v>
       </c>
       <c r="D20">
-        <v>11.55625917422693</v>
+        <v>12.85142523302322</v>
       </c>
       <c r="E20">
-        <v>11.23276637462379</v>
+        <v>8.696518322581358</v>
       </c>
       <c r="F20">
-        <v>59.82279003051616</v>
+        <v>76.67075041071327</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.7426494757273</v>
+        <v>13.03821595022246</v>
       </c>
       <c r="L20">
-        <v>10.22946423171401</v>
+        <v>7.473577106938602</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.76033250605807</v>
+        <v>18.22171265879874</v>
       </c>
       <c r="C21">
-        <v>5.635286138781964</v>
+        <v>6.954956154787051</v>
       </c>
       <c r="D21">
-        <v>11.73698329863985</v>
+        <v>13.38470723325365</v>
       </c>
       <c r="E21">
-        <v>11.26871946567366</v>
+        <v>8.976911189683115</v>
       </c>
       <c r="F21">
-        <v>61.30694880769529</v>
+        <v>80.89160529688311</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.78619249534285</v>
+        <v>13.97847871830573</v>
       </c>
       <c r="L21">
-        <v>10.2423720504878</v>
+        <v>7.738480330862743</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.84561635706555</v>
+        <v>18.99389118732607</v>
       </c>
       <c r="C22">
-        <v>5.698533784816758</v>
+        <v>7.157374965494013</v>
       </c>
       <c r="D22">
-        <v>11.85291331348885</v>
+        <v>13.73040082884611</v>
       </c>
       <c r="E22">
-        <v>11.29340138786537</v>
+        <v>9.162079891550631</v>
       </c>
       <c r="F22">
-        <v>62.26010946330663</v>
+        <v>83.60416436928264</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.81939659740351</v>
+        <v>14.57971202982902</v>
       </c>
       <c r="L22">
-        <v>10.25260915819504</v>
+        <v>7.914941633773879</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.79961369054629</v>
+        <v>18.58304555409143</v>
       </c>
       <c r="C23">
-        <v>5.664964034080035</v>
+        <v>7.049236831933136</v>
       </c>
       <c r="D23">
-        <v>11.79124345780938</v>
+        <v>13.54612725856575</v>
       </c>
       <c r="E23">
-        <v>11.28012072316019</v>
+        <v>9.06306701815744</v>
       </c>
       <c r="F23">
-        <v>61.75300098460262</v>
+        <v>82.16043703576494</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.80124269540066</v>
+        <v>14.25995036639583</v>
       </c>
       <c r="L23">
-        <v>10.2469810569254</v>
+        <v>7.820444412564598</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.63616797362855</v>
+        <v>16.99735535176169</v>
       </c>
       <c r="C24">
-        <v>5.533723510546992</v>
+        <v>6.641131320657278</v>
       </c>
       <c r="D24">
-        <v>11.55326945892895</v>
+        <v>12.84265515106162</v>
       </c>
       <c r="E24">
-        <v>11.23219893709216</v>
+        <v>8.691966034309646</v>
       </c>
       <c r="F24">
-        <v>59.79826474258434</v>
+        <v>76.60094829389136</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.74201832642981</v>
+        <v>13.02260513105101</v>
       </c>
       <c r="L24">
-        <v>10.22928375681919</v>
+        <v>7.469301483663747</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.4836413287914</v>
+        <v>15.3884983516285</v>
       </c>
       <c r="C25">
-        <v>5.383412313841912</v>
+        <v>6.199412102150774</v>
       </c>
       <c r="D25">
-        <v>11.28765633938753</v>
+        <v>12.06930665159583</v>
       </c>
       <c r="E25">
-        <v>11.18568015730479</v>
+        <v>8.299277160913281</v>
       </c>
       <c r="F25">
-        <v>57.62524153061027</v>
+        <v>70.39233927019765</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.6986765167932</v>
+        <v>11.62302146668932</v>
       </c>
       <c r="L25">
-        <v>10.21796399885281</v>
+        <v>7.104057150960159</v>
       </c>
       <c r="M25">
         <v>0</v>
